--- a/Modelos em Python/resultados_erros_ann.xlsx
+++ b/Modelos em Python/resultados_erros_ann.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11.04910878422304</v>
+        <v>18.86318703763802</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3712818959999426</v>
+        <v>0.5747630228093102</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1549915050302478</v>
+        <v>0.4934847347142558</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9.205251158421603</v>
+        <v>18.77866380599822</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3082343263760338</v>
+        <v>0.5716299071574162</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1668696095389822</v>
+        <v>0.4898882947086742</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10.91786025555738</v>
+        <v>21.00064625546418</v>
       </c>
       <c r="D4" t="n">
-        <v>0.366874707027846</v>
+        <v>0.6553619487708067</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1550672641407223</v>
+        <v>0.5516974916053881</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9.823721992896679</v>
+        <v>23.75632916230909</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3321869145482754</v>
+        <v>0.7638676624919635</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1955223043368968</v>
+        <v>0.6039707763382279</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12.14898480750391</v>
+        <v>18.56274694492592</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4225462623091056</v>
+        <v>0.5945742443916738</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1799954932723905</v>
+        <v>0.3548822522916851</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10.73065828069994</v>
+        <v>19.38753209311923</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3724122732049889</v>
+        <v>0.6205104348237712</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2011794532800475</v>
+        <v>0.3224738073205077</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13.99413329835668</v>
+        <v>19.09082730530276</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4856257162687152</v>
+        <v>0.6110674412121987</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1801656344749558</v>
+        <v>0.3292207509204743</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>12.28493934159945</v>
+        <v>18.54345379508174</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4272730703682009</v>
+        <v>0.5941926057626555</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1796219985084857</v>
+        <v>0.3600693439166799</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9.304862972712666</v>
+        <v>19.12974495221251</v>
       </c>
       <c r="D10" t="n">
-        <v>0.324501594621891</v>
+        <v>0.6099660351848135</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1086142295699054</v>
+        <v>0.3436543726134145</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11.90140623646669</v>
+        <v>17.40632769430323</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4109036154347048</v>
+        <v>0.5436354564414717</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1254401180080631</v>
+        <v>0.2441877463015232</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10.71897084919781</v>
+        <v>25.98448418880363</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3719599718361898</v>
+        <v>0.7848370792815191</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1170847246756868</v>
+        <v>0.2638540922350562</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>11.15193896407732</v>
+        <v>23.04638849455958</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3862931405017578</v>
+        <v>0.7061039026565303</v>
       </c>
       <c r="E13" t="n">
-        <v>0.119984949168019</v>
+        <v>0.2486874110911723</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>11.72614533266658</v>
+        <v>18.60287392887157</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4003283457626097</v>
+        <v>0.5779305901603524</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1578444126862965</v>
+        <v>0.4323430161624958</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9.680145741058071</v>
+        <v>18.55032833818141</v>
       </c>
       <c r="D15" t="n">
-        <v>0.33012999531937</v>
+        <v>0.5759321326268847</v>
       </c>
       <c r="E15" t="n">
-        <v>0.164981961160776</v>
+        <v>0.4290867993972921</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11.58439419581347</v>
+        <v>20.2037352952917</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3955591130402977</v>
+        <v>0.6388494674129116</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1576925169367043</v>
+        <v>0.4859667321342303</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9.798730028171832</v>
+        <v>22.55026774118522</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3355902179634624</v>
+        <v>0.7314872007005707</v>
       </c>
       <c r="E17" t="n">
-        <v>0.189650543704456</v>
+        <v>0.5350538516539345</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_ann.xlsx
+++ b/Modelos em Python/resultados_erros_ann.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18.86318703763802</v>
+        <v>10.11073211142728</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5747630228093102</v>
+        <v>0.3395092652154582</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4934847347142558</v>
+        <v>0.1571182695465876</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18.77866380599822</v>
+        <v>9.2656607638823</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5716299071574162</v>
+        <v>0.3103360286098052</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4898882947086742</v>
+        <v>0.1654494821263083</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.00064625546418</v>
+        <v>10.15585755614259</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6553619487708067</v>
+        <v>0.3410519825797088</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5516974916053881</v>
+        <v>0.1569181762996922</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23.75632916230909</v>
+        <v>9.563333617792878</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7638676624919635</v>
+        <v>0.3222870920728047</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6039707763382279</v>
+        <v>0.1904124221473071</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18.56274694492592</v>
+        <v>11.50672254022935</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5945742443916738</v>
+        <v>0.4000112032423718</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3548822522916851</v>
+        <v>0.18377333195288</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19.38753209311923</v>
+        <v>10.72746406418934</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6205104348237712</v>
+        <v>0.3723068401744269</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3224738073205077</v>
+        <v>0.2015618893778428</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19.09082730530276</v>
+        <v>14.62625538109901</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6110674412121987</v>
+        <v>0.5067538048357073</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3292207509204743</v>
+        <v>0.1818200439160813</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18.54345379508174</v>
+        <v>13.26414465397198</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5941926057626555</v>
+        <v>0.4609348402857178</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3600693439166799</v>
+        <v>0.1790337747695009</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19.12974495221251</v>
+        <v>9.922259528005128</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6099660351848135</v>
+        <v>0.3453527046834202</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3436543726134145</v>
+        <v>0.1121263086285947</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17.40632769430323</v>
+        <v>12.09137159361924</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5436354564414717</v>
+        <v>0.4171015697496908</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2441877463015232</v>
+        <v>0.1268658962811898</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25.98448418880363</v>
+        <v>11.00867509661933</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7848370792815191</v>
+        <v>0.3815598772242179</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2638540922350562</v>
+        <v>0.119000966625452</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.04638849455958</v>
+        <v>11.9676041793203</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7061039026565303</v>
+        <v>0.4130651961874078</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2486874110911723</v>
+        <v>0.1259334755079726</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18.60287392887157</v>
+        <v>10.70858260966279</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5779305901603524</v>
+        <v>0.3657986915939476</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4323430161624958</v>
+        <v>0.1581190435823259</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>18.55032833818141</v>
+        <v>9.752587959151953</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5759321326268847</v>
+        <v>0.3326688449031675</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4290867993972921</v>
+        <v>0.1638699270121952</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20.2037352952917</v>
+        <v>10.75709076757412</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6388494674129116</v>
+        <v>0.3674610573779778</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4859667321342303</v>
+        <v>0.1580195213915485</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22.55026774118522</v>
+        <v>9.63604356792124</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7314872007005707</v>
+        <v>0.3293620961093695</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5350538516539345</v>
+        <v>0.1850688785864734</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_ann.xlsx
+++ b/Modelos em Python/resultados_erros_ann.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10.11073211142728</v>
+        <v>19.15231411270111</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3395092652154582</v>
+        <v>0.6583149113547691</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1571182695465876</v>
+        <v>0.4261231532484377</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -493,19 +493,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9.2656607638823</v>
+        <v>18.49496626834489</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3103360286098052</v>
+        <v>0.6304742389134956</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1654494821263083</v>
+        <v>0.4147872387398184</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -514,19 +514,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10.15585755614259</v>
+        <v>21.87151508342856</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3410519825797088</v>
+        <v>0.7757237522433449</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1569181762996922</v>
+        <v>0.4635690223029243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -535,19 +535,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9.563333617792878</v>
+        <v>26.13753148603606</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3222870920728047</v>
+        <v>0.9671044531606724</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1904124221473071</v>
+        <v>0.5145641119293286</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -556,19 +556,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11.50672254022935</v>
+        <v>15.49615711176085</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4000112032423718</v>
+        <v>0.5399012981836211</v>
       </c>
       <c r="E6" t="n">
-        <v>0.18377333195288</v>
+        <v>0.4341066701618745</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10.72746406418934</v>
+        <v>14.47913697006379</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3723068401744269</v>
+        <v>0.4974665071589198</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2015618893778428</v>
+        <v>0.4122372192733738</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -598,19 +598,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14.62625538109901</v>
+        <v>14.26320251176747</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5067538048357073</v>
+        <v>0.488451919912589</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1818200439160813</v>
+        <v>0.404541766892092</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -619,19 +619,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>13.26414465397198</v>
+        <v>15.53843700852615</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4609348402857178</v>
+        <v>0.5416753337776478</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1790337747695009</v>
+        <v>0.4348187566126168</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -640,19 +640,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9.922259528005128</v>
+        <v>17.9201163746454</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3453527046834202</v>
+        <v>0.5822308425071334</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1121263086285947</v>
+        <v>0.3726621306160273</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -661,19 +661,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>12.09137159361924</v>
+        <v>20.33290674770506</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4171015697496908</v>
+        <v>0.681257908945904</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1268658962811898</v>
+        <v>0.4368194627093909</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -682,19 +682,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11.00867509661933</v>
+        <v>20.05910419374865</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3815598772242179</v>
+        <v>0.6698461386606346</v>
       </c>
       <c r="E12" t="n">
-        <v>0.119000966625452</v>
+        <v>0.4314753023874097</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -703,19 +703,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>11.9676041793203</v>
+        <v>20.14120281690548</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4130651961874078</v>
+        <v>0.6732647719307427</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1259334755079726</v>
+        <v>0.4331222386193165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -724,19 +724,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10.70858260966279</v>
+        <v>18.59249175822297</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3657986915939476</v>
+        <v>0.6416556038019415</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1581190435823259</v>
+        <v>0.4362306422545689</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -745,19 +745,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9.752587959151953</v>
+        <v>17.92621747004624</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3326688449031675</v>
+        <v>0.6134981440635131</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1638699270121952</v>
+        <v>0.4251356976525328</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -766,19 +766,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10.75709076757412</v>
+        <v>21.32850059814758</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3674610573779778</v>
+        <v>0.7595998086677324</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1580195213915485</v>
+        <v>0.4729462141462754</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9.63604356792124</v>
+        <v>25.59783666176392</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3293620961093695</v>
+        <v>0.9508940435724027</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1850688785864734</v>
+        <v>0.5230835615519269</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_ann.xlsx
+++ b/Modelos em Python/resultados_erros_ann.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19.15231411270111</v>
+        <v>17.16576139092995</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6583149113547691</v>
+        <v>0.5747426034805972</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4261231532484377</v>
+        <v>0.3828030444014047</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18.49496626834489</v>
+        <v>19.5987467332973</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6304742389134956</v>
+        <v>0.6773458940553704</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4147872387398184</v>
+        <v>0.4330872897504652</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.87151508342856</v>
+        <v>20.84443091444421</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7757237522433449</v>
+        <v>0.7309627370826089</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4635690223029243</v>
+        <v>0.4505479349083943</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26.13753148603606</v>
+        <v>21.08740713274128</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9671044531606724</v>
+        <v>0.741507157197399</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5145641119293286</v>
+        <v>0.4537124493214577</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.49615711176085</v>
+        <v>14.35877105067674</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5399012981836211</v>
+        <v>0.4924489293847675</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4341066701618745</v>
+        <v>0.4082643175444625</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14.47913697006379</v>
+        <v>14.18234505402193</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4974665071589198</v>
+        <v>0.4850523963794523</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4122372192733738</v>
+        <v>0.4007913879073015</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14.26320251176747</v>
+        <v>14.12249395000888</v>
       </c>
       <c r="D8" t="n">
-        <v>0.488451919912589</v>
+        <v>0.4825107013065824</v>
       </c>
       <c r="E8" t="n">
-        <v>0.404541766892092</v>
+        <v>0.397358575528647</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15.53843700852615</v>
+        <v>14.03472010935194</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5416753337776478</v>
+        <v>0.4779431093707383</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4348187566126168</v>
+        <v>0.376888735204815</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17.9201163746454</v>
+        <v>17.47148951176278</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5822308425071334</v>
+        <v>0.5626391380891672</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3726621306160273</v>
+        <v>0.3249318070098346</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20.33290674770506</v>
+        <v>17.95519067675657</v>
       </c>
       <c r="D11" t="n">
-        <v>0.681257908945904</v>
+        <v>0.5836470482838285</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4368194627093909</v>
+        <v>0.3741303608605964</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20.05910419374865</v>
+        <v>18.90968075270229</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6698461386606346</v>
+        <v>0.62243344032468</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4314753023874097</v>
+        <v>0.4053028458771512</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20.14120281690548</v>
+        <v>18.43699692461473</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6732647719307427</v>
+        <v>0.6031568278792048</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4331222386193165</v>
+        <v>0.3914971350962144</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18.59249175822297</v>
+        <v>16.59310978273302</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6416556038019415</v>
+        <v>0.5577402454698321</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4362306422545689</v>
+        <v>0.3938884514401078</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17.92621747004624</v>
+        <v>19.04462133982378</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6134981440635131</v>
+        <v>0.6608917112492519</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4251356976525328</v>
+        <v>0.4430515658218793</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21.32850059814758</v>
+        <v>20.30080469547908</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7595998086677324</v>
+        <v>0.7148705323922717</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4729462141462754</v>
+        <v>0.4601683293771354</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25.59783666176392</v>
+        <v>20.54422949830758</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9508940435724027</v>
+        <v>0.7254199247942057</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5230835615519269</v>
+        <v>0.4632727347398358</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_ann.xlsx
+++ b/Modelos em Python/resultados_erros_ann.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16.58208364142574</v>
+        <v>19.57040718331224</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5502475562493654</v>
+        <v>0.6761348013471109</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3562002189833571</v>
+        <v>0.4326582136859612</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17.09422814956081</v>
+        <v>18.24631224278919</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5717580591264279</v>
+        <v>0.6199994989125232</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3803808178903879</v>
+        <v>0.410043308191916</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17.53357521331088</v>
+        <v>24.18263983364442</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5901031497967666</v>
+        <v>0.8782725257565914</v>
       </c>
       <c r="E4" t="n">
-        <v>0.393693121046364</v>
+        <v>0.491116499715891</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17.81966435811713</v>
+        <v>21.29237053834924</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6020883241515718</v>
+        <v>0.7504234812755853</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4009423391644542</v>
+        <v>0.4563366602033418</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.14597995231356</v>
+        <v>16.17298394360636</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5252421451358712</v>
+        <v>0.5684154185478693</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4277868036508721</v>
+        <v>0.4446530032604033</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14.238984208863</v>
+        <v>14.49495047227267</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4874361045623157</v>
+        <v>0.4981255962047283</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4034911088224047</v>
+        <v>0.4127250844518501</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14.48345320499677</v>
+        <v>14.68599452579525</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4976464475609401</v>
+        <v>0.5060802985330668</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4123717982721583</v>
+        <v>0.4179847929411337</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14.25480541227989</v>
+        <v>14.70615632929741</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4880997636981715</v>
+        <v>0.5069191616729387</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4041812985217631</v>
+        <v>0.4184804627777531</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17.93101015497305</v>
+        <v>17.42982408241642</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5826706660799819</v>
+        <v>0.5618597089734021</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3731220473190839</v>
+        <v>0.3368235290956588</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>18.28178556938414</v>
+        <v>18.1898450771418</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5968568453339718</v>
+        <v>0.5931315289873325</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3863518030718496</v>
+        <v>0.383117337597416</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18.92385326827155</v>
+        <v>18.22753040646072</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6230133607151359</v>
+        <v>0.5946582043068874</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4056793625743972</v>
+        <v>0.3844653458069277</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18.99380332834367</v>
+        <v>18.34766495270174</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6258767750425529</v>
+        <v>0.5995295425847361</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4075046122566751</v>
+        <v>0.3885863801245522</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>16.04977168670967</v>
+        <v>19.01591174328742</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5349120099432133</v>
+        <v>0.6596671481979396</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3679696929504063</v>
+        <v>0.4426312104775618</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16.52348551253969</v>
+        <v>17.67536036187418</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5548407660882069</v>
+        <v>0.6029542880969401</v>
       </c>
       <c r="E15" t="n">
-        <v>0.391525718821537</v>
+        <v>0.420495612676761</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>16.95541516950042</v>
+        <v>23.64124005764959</v>
       </c>
       <c r="D16" t="n">
-        <v>0.572837543567829</v>
+        <v>0.8620941830190292</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4045176554690915</v>
+        <v>0.5000128868385227</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17.24316650579108</v>
+        <v>20.74919086456277</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5848585355977138</v>
+        <v>0.7343245577953705</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4115990365919908</v>
+        <v>0.4658475943911324</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_ann.xlsx
+++ b/Modelos em Python/resultados_erros_ann.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19.57040718331224</v>
+        <v>16.83053667983489</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6761348013471109</v>
+        <v>0.5607369486660166</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4326582136859612</v>
+        <v>0.3699491307676956</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18.24631224278919</v>
+        <v>16.67594599598237</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6199994989125232</v>
+        <v>0.5542424989327381</v>
       </c>
       <c r="E3" t="n">
-        <v>0.410043308191916</v>
+        <v>0.3622220619141386</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24.18263983364442</v>
+        <v>18.57678082088321</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8782725257565914</v>
+        <v>0.6339270395196024</v>
       </c>
       <c r="E4" t="n">
-        <v>0.491116499715891</v>
+        <v>0.4162796806253664</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21.29237053834924</v>
+        <v>19.31117722760001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7504234812755853</v>
+        <v>0.6650760044710907</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4563366602033418</v>
+        <v>0.4286605965151168</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16.17298394360636</v>
+        <v>14.02056266475863</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5684154185478693</v>
+        <v>0.4775324820088914</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4446530032604033</v>
+        <v>0.3792236833415859</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14.49495047227267</v>
+        <v>14.01816650114845</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4981255962047283</v>
+        <v>0.477473168663818</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4127250844518501</v>
+        <v>0.37980744948903</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14.68599452579525</v>
+        <v>14.05600340693091</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5060802985330668</v>
+        <v>0.479614207142316</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4179847929411337</v>
+        <v>0.3919618420723404</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14.70615632929741</v>
+        <v>14.01342921936084</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5069191616729387</v>
+        <v>0.4775782226835885</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4184804627777531</v>
+        <v>0.3849823696835236</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17.42982408241642</v>
+        <v>17.61849380404029</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5618597089734021</v>
+        <v>0.5672651959398646</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3368235290956588</v>
+        <v>0.3160498617160087</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>18.1898450771418</v>
+        <v>17.44000833084504</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5931315289873325</v>
+        <v>0.5624475712393237</v>
       </c>
       <c r="E11" t="n">
-        <v>0.383117337597416</v>
+        <v>0.3405327657569808</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18.22753040646072</v>
+        <v>17.81245144644634</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5946582043068874</v>
+        <v>0.577886775518698</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3844653458069277</v>
+        <v>0.3679295086740169</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18.34766495270174</v>
+        <v>17.66731958790636</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5995295425847361</v>
+        <v>0.5720180529164043</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3885863801245522</v>
+        <v>0.360620024002565</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19.01591174328742</v>
+        <v>16.27215384246307</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6596671481979396</v>
+        <v>0.5443441466767553</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4426312104775618</v>
+        <v>0.381356550618897</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17.67536036187418</v>
+        <v>16.13127155073408</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6029542880969401</v>
+        <v>0.5384098464407723</v>
       </c>
       <c r="E15" t="n">
-        <v>0.420495612676761</v>
+        <v>0.373830678928987</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.64124005764959</v>
+        <v>18.0088420512008</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8620941830190292</v>
+        <v>0.6169775255860401</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5000128868385227</v>
+        <v>0.4265958421291038</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20.74919086456277</v>
+        <v>18.75347216385222</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7343245577953705</v>
+        <v>0.6484929778004139</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4658475943911324</v>
+        <v>0.4387154894079279</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_ann.xlsx
+++ b/Modelos em Python/resultados_erros_ann.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16.83053667983489</v>
+        <v>17.32075464006132</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5607369486660166</v>
+        <v>0.5812079273179459</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3699491307676956</v>
+        <v>0.3876290628168711</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.67594599598237</v>
+        <v>18.79188210786948</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5542424989327381</v>
+        <v>0.6430207986310216</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3622220619141386</v>
+        <v>0.4200740258090613</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18.57678082088321</v>
+        <v>19.45200131799033</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6339270395196024</v>
+        <v>0.6710792562874589</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4162796806253664</v>
+        <v>0.4308491971507026</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19.31117722760001</v>
+        <v>18.03968963969176</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6650760044710907</v>
+        <v>0.6113176787028349</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4286605965151168</v>
+        <v>0.405833649678785</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14.02056266475863</v>
+        <v>14.0495786445451</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4775324820088914</v>
+        <v>0.4793264336497107</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3792236833415859</v>
+        <v>0.3912767607493615</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14.01816650114845</v>
+        <v>14.17229121748699</v>
       </c>
       <c r="D7" t="n">
-        <v>0.477473168663818</v>
+        <v>0.484627573021197</v>
       </c>
       <c r="E7" t="n">
-        <v>0.37980744948903</v>
+        <v>0.4002661452449434</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14.05600340693091</v>
+        <v>14.29993046348211</v>
       </c>
       <c r="D8" t="n">
-        <v>0.479614207142316</v>
+        <v>0.4899902057008234</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3919618420723404</v>
+        <v>0.4060503511976691</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14.01342921936084</v>
+        <v>14.20179985736322</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4775782226835885</v>
+        <v>0.4858723917523559</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3849823696835236</v>
+        <v>0.4017574833038038</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17.61849380404029</v>
+        <v>17.43810826613687</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5672651959398646</v>
+        <v>0.562351127668055</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3160498617160087</v>
+        <v>0.3400664177098793</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17.44000833084504</v>
+        <v>17.57078774105502</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5624475712393237</v>
+        <v>0.5680782566544866</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3405327657569808</v>
+        <v>0.3546083810870873</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17.81245144644634</v>
+        <v>18.07884644930626</v>
       </c>
       <c r="D12" t="n">
-        <v>0.577886775518698</v>
+        <v>0.588640617148224</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3679295086740169</v>
+        <v>0.3790032746131438</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17.66731958790636</v>
+        <v>18.22023275887302</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5720180529164043</v>
+        <v>0.5943625304731018</v>
       </c>
       <c r="E13" t="n">
-        <v>0.360620024002565</v>
+        <v>0.3842066808454722</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>16.27215384246307</v>
+        <v>16.74438563120429</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5443441466767553</v>
+        <v>0.5640388240132236</v>
       </c>
       <c r="E14" t="n">
-        <v>0.381356550618897</v>
+        <v>0.398597542018188</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16.13127155073408</v>
+        <v>18.22635013900527</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5384098464407723</v>
+        <v>0.6261532661740931</v>
       </c>
       <c r="E15" t="n">
-        <v>0.373830678928987</v>
+        <v>0.4303088645935113</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>18.0088420512008</v>
+        <v>18.89604066531984</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6169775255860401</v>
+        <v>0.6545588045125138</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4265958421291038</v>
+        <v>0.4408591085851558</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>18.75347216385222</v>
+        <v>17.46673112139993</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6484929778004139</v>
+        <v>0.5942093831887869</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4387154894079279</v>
+        <v>0.4163796388891831</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_ann.xlsx
+++ b/Modelos em Python/resultados_erros_ann.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17.32075464006132</v>
+        <v>17.32747039874566</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5812079273179459</v>
+        <v>0.5814882188282157</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3876290628168711</v>
+        <v>0.3878286213688129</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18.79188210786948</v>
+        <v>18.10638746428387</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6430207986310216</v>
+        <v>0.6141183292664074</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4200740258090613</v>
+        <v>0.4072265084945526</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19.45200131799033</v>
+        <v>23.39634282410577</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6710792562874589</v>
+        <v>0.8430884341427224</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4308491971507026</v>
+        <v>0.4817954791902914</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18.03968963969176</v>
+        <v>23.82673799478966</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6113176787028349</v>
+        <v>0.8623090256089052</v>
       </c>
       <c r="E5" t="n">
-        <v>0.405833649678785</v>
+        <v>0.4868965324318169</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14.0495786445451</v>
+        <v>16.0966734516966</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4793264336497107</v>
+        <v>0.565188477457488</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3912767607493615</v>
+        <v>0.4435433544221664</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14.17229121748699</v>
+        <v>17.66687383932321</v>
       </c>
       <c r="D7" t="n">
-        <v>0.484627573021197</v>
+        <v>0.6321995454594643</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4002661452449434</v>
+        <v>0.4641332501287104</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14.29993046348211</v>
+        <v>15.73631878000552</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4899902057008234</v>
+        <v>0.5499910262344408</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4060503511976691</v>
+        <v>0.4380441156160831</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14.20179985736322</v>
+        <v>14.94191700154964</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4858723917523559</v>
+        <v>0.5167294485455165</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4017574833038038</v>
+        <v>0.4237081181521509</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17.43810826613687</v>
+        <v>17.65616710798431</v>
       </c>
       <c r="D10" t="n">
-        <v>0.562351127668055</v>
+        <v>0.5715653401610805</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3400664177098793</v>
+        <v>0.359990786468386</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17.57078774105502</v>
+        <v>20.05187869303716</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5680782566544866</v>
+        <v>0.6695453718249962</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3546083810870873</v>
+        <v>0.4313281493663931</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18.07884644930626</v>
+        <v>21.62274746852294</v>
       </c>
       <c r="D12" t="n">
-        <v>0.588640617148224</v>
+        <v>0.7354817399189417</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3790032746131438</v>
+        <v>0.4583706494393824</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18.22023275887302</v>
+        <v>23.98380773245721</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5943625304731018</v>
+        <v>0.8368986193326071</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3842066808454722</v>
+        <v>0.4915110672607814</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>16.74438563120429</v>
+        <v>16.7509693649844</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5640388240132236</v>
+        <v>0.5643130587178977</v>
       </c>
       <c r="E14" t="n">
-        <v>0.398597542018188</v>
+        <v>0.3987923111549289</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>18.22635013900527</v>
+        <v>17.53425273326201</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6261532661740931</v>
+        <v>0.5970373240021752</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4303088645935113</v>
+        <v>0.4177413383274801</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>18.89604066531984</v>
+        <v>22.85464530009707</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6545588045125138</v>
+        <v>0.8269393034428171</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4408591085851558</v>
+        <v>0.4908497004065245</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17.46673112139993</v>
+        <v>23.28512858564045</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5942093831887869</v>
+        <v>0.846140673022852</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4163796388891831</v>
+        <v>0.4958637865871715</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_ann.xlsx
+++ b/Modelos em Python/resultados_erros_ann.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17.32747039874566</v>
+        <v>18.22320637257929</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5814882188282157</v>
+        <v>0.6190276928291581</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3878286213688129</v>
+        <v>0.4095861585123352</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18.10638746428387</v>
+        <v>16.74020813130523</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6141183292664074</v>
+        <v>0.5569494849642684</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4072265084945526</v>
+        <v>0.3656630661394688</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23.39634282410577</v>
+        <v>18.96839148968768</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8430884341427224</v>
+        <v>0.6505018150653346</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4817954791902914</v>
+        <v>0.4230807807707752</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23.82673799478966</v>
+        <v>18.1298669513631</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8623090256089052</v>
+        <v>0.6151045875200873</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4868965324318169</v>
+        <v>0.4077080526973467</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16.0966734516966</v>
+        <v>14.07256595634955</v>
       </c>
       <c r="D6" t="n">
-        <v>0.565188477457488</v>
+        <v>0.4791718809940708</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4435433544221664</v>
+        <v>0.3731487171952046</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17.66687383932321</v>
+        <v>14.64986338765114</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6321995454594643</v>
+        <v>0.4994202737620468</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4641332501287104</v>
+        <v>0.3524283788269491</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15.73631878000552</v>
+        <v>14.389891298401</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5499910262344408</v>
+        <v>0.4902528720888911</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4380441156160831</v>
+        <v>0.3592894031419612</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14.94191700154964</v>
+        <v>14.68535888087347</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5167294485455165</v>
+        <v>0.5006698224511418</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4237081181521509</v>
+        <v>0.351613341828225</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17.65616710798431</v>
+        <v>17.94560633938095</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5715653401610805</v>
+        <v>0.5778757672478995</v>
       </c>
       <c r="E10" t="n">
-        <v>0.359990786468386</v>
+        <v>0.3050528536066816</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20.05187869303716</v>
+        <v>17.51391273105309</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6695453718249962</v>
+        <v>0.5639427363313658</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4313281493663931</v>
+        <v>0.3217022924749084</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21.62274746852294</v>
+        <v>17.50016476624138</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7354817399189417</v>
+        <v>0.5651393538341686</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4583706494393824</v>
+        <v>0.348904803077099</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.98380773245721</v>
+        <v>17.50128251543811</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8368986193326071</v>
+        <v>0.5651867622946215</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4915110672607814</v>
+        <v>0.3490129112277376</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>16.7509693649844</v>
+        <v>17.65206373793506</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5643130587178977</v>
+        <v>0.6019767140120271</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3987923111549289</v>
+        <v>0.420048566295703</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17.53425273326201</v>
+        <v>16.18915900145932</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5970373240021752</v>
+        <v>0.5408576235367329</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4177413383274801</v>
+        <v>0.3771813678756654</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22.85464530009707</v>
+        <v>18.40556216983528</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8269393034428171</v>
+        <v>0.6337320607773396</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4908497004065245</v>
+        <v>0.4332519704857571</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.28512858564045</v>
+        <v>17.55793032034456</v>
       </c>
       <c r="D17" t="n">
-        <v>0.846140673022852</v>
+        <v>0.598029527043986</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4958637865871715</v>
+        <v>0.418212147340873</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_ann.xlsx
+++ b/Modelos em Python/resultados_erros_ann.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18.22320637257929</v>
+        <v>17.15717524600906</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6190276928291581</v>
+        <v>0.574384486188074</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4095861585123352</v>
+        <v>0.3825204764997234</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.74020813130523</v>
+        <v>16.65600069683091</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5569494849642684</v>
+        <v>0.5533988743267203</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3656630661394688</v>
+        <v>0.361062950880469</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18.96839148968768</v>
+        <v>16.96282560984733</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6505018150653346</v>
+        <v>0.5662695838330573</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4230807807707752</v>
+        <v>0.3754965235489971</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18.1298669513631</v>
+        <v>16.51969147086875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6151045875200873</v>
+        <v>0.5475338157213225</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4077080526973467</v>
+        <v>0.3509865766683467</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14.07256595634955</v>
+        <v>14.93203678442511</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4791718809940708</v>
+        <v>0.5093333942368159</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3731487171952046</v>
+        <v>0.3465478481608955</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14.64986338765114</v>
+        <v>15.34460837393058</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4994202737620468</v>
+        <v>0.5237310230108366</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3524283788269491</v>
+        <v>0.3398051835958494</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14.389891298401</v>
+        <v>15.15167040439937</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4902528720888911</v>
+        <v>0.5170126889557899</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3592894031419612</v>
+        <v>0.3427237647350029</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14.68535888087347</v>
+        <v>16.0035908228544</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5006698224511418</v>
+        <v>0.5464730239513144</v>
       </c>
       <c r="E9" t="n">
-        <v>0.351613341828225</v>
+        <v>0.3319441164824077</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17.94560633938095</v>
+        <v>18.39824377793382</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5778757672478995</v>
+        <v>0.5925875485372667</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3050528536066816</v>
+        <v>0.2957177627773305</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17.51391273105309</v>
+        <v>17.96213988542372</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5639427363313658</v>
+        <v>0.5784142214669726</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3217022924749084</v>
+        <v>0.3046312908358129</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17.50016476624138</v>
+        <v>17.65952422578349</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5651393538341686</v>
+        <v>0.5685864980007939</v>
       </c>
       <c r="E12" t="n">
-        <v>0.348904803077099</v>
+        <v>0.3142813666400586</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17.50128251543811</v>
+        <v>17.44342416799783</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5651867622946215</v>
+        <v>0.5618588042852104</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3490129112277376</v>
+        <v>0.3285739726333122</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.65206373793506</v>
+        <v>16.58475071864238</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6019767140120271</v>
+        <v>0.5573922350871727</v>
       </c>
       <c r="E14" t="n">
-        <v>0.420048566295703</v>
+        <v>0.3936127959069863</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16.18915900145932</v>
+        <v>16.11355229009763</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5408576235367329</v>
+        <v>0.5376563170241678</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3771813678756654</v>
+        <v>0.3727022523548009</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>18.40556216983528</v>
+        <v>16.39639342615428</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6337320607773396</v>
+        <v>0.5495410997523876</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4332519704857571</v>
+        <v>0.3867630563513991</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17.55793032034456</v>
+        <v>15.99936488078484</v>
       </c>
       <c r="D17" t="n">
-        <v>0.598029527043986</v>
+        <v>0.5326743577729757</v>
       </c>
       <c r="E17" t="n">
-        <v>0.418212147340873</v>
+        <v>0.3628982185534598</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_ann.xlsx
+++ b/Modelos em Python/resultados_erros_ann.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18.76790553332279</v>
+        <v>25.57085718456294</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0995171070098877</v>
+        <v>0.4475958347320557</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4196582944098826</v>
+        <v>0.5076770585879955</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20.36877811701569</v>
+        <v>24.40434129021229</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2001712322235107</v>
+        <v>0.3946464061737061</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4441502505358478</v>
+        <v>0.4937452897972159</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19.03633080488197</v>
+        <v>24.19344263074817</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1185390949249268</v>
+        <v>0.3850748538970947</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4242154459623119</v>
+        <v>0.4912445444652068</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19.62995870371939</v>
+        <v>23.76250027508626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1570956707000732</v>
+        <v>0.3654515743255615</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4335571382498303</v>
+        <v>0.4861352637389654</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.51988337718675</v>
+        <v>20.72638144240475</v>
       </c>
       <c r="D6" t="n">
-        <v>1.875869989395142</v>
+        <v>1.885254144668579</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4958795879274567</v>
+        <v>0.4981060031339273</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18.90030937398539</v>
+        <v>19.91808912497552</v>
       </c>
       <c r="D7" t="n">
-        <v>1.800986051559448</v>
+        <v>1.848340749740601</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4783600702730532</v>
+        <v>0.4893870586531898</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19.61674207267886</v>
+        <v>19.91808912497552</v>
       </c>
       <c r="D8" t="n">
-        <v>1.834474325180054</v>
+        <v>1.848340749740601</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4861392720028894</v>
+        <v>0.4893870586531898</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17.69200214819826</v>
+        <v>19.34316538700041</v>
       </c>
       <c r="D9" t="n">
-        <v>1.739979982376099</v>
+        <v>1.821823358535767</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4644353423399717</v>
+        <v>0.4831896565971898</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19.57195038153457</v>
+        <v>19.29487089258454</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4477488994598389</v>
+        <v>0.422039270401001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4211218414868205</v>
+        <v>0.4148370111403122</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22.08222271476163</v>
+        <v>22.5950090937642</v>
       </c>
       <c r="D11" t="n">
-        <v>0.62131667137146</v>
+        <v>0.649402379989624</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4652408034340354</v>
+        <v>0.4726226916347984</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24.14375013638333</v>
+        <v>24.36869610646901</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7281243801116943</v>
+        <v>0.7390553951263428</v>
       </c>
       <c r="E12" t="n">
-        <v>0.49362062519849</v>
+        <v>0.4965698439099493</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.90445333704847</v>
+        <v>24.32609549250818</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7163856029510498</v>
+        <v>0.7369925975799561</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4904622420117984</v>
+        <v>0.4960126990541005</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18.20200691086069</v>
+        <v>25.03048000129247</v>
       </c>
       <c r="D14" t="n">
-        <v>1.61051344871521</v>
+        <v>1.958592176437378</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4299019885824334</v>
+        <v>0.5163043680816526</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19.82232612562308</v>
+        <v>23.86306340546137</v>
       </c>
       <c r="D15" t="n">
-        <v>1.711167573928833</v>
+        <v>1.905642747879028</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4538942032031291</v>
+        <v>0.502598014553144</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>18.47459242512189</v>
+        <v>23.65204771995229</v>
       </c>
       <c r="D16" t="n">
-        <v>1.629535436630249</v>
+        <v>1.896071195602417</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4343627962128009</v>
+        <v>0.5001387963170801</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19.07620738524527</v>
+        <v>23.22087590073025</v>
       </c>
       <c r="D17" t="n">
-        <v>1.668092012405396</v>
+        <v>1.876447916030884</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4435118802339768</v>
+        <v>0.4951154052805309</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_ann.xlsx
+++ b/Modelos em Python/resultados_erros_ann.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25.57085718456294</v>
+        <v>23.07036297697279</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4475958347320557</v>
+        <v>0.333754301071167</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5076770585879955</v>
+        <v>0.4779341168034866</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24.40434129021229</v>
+        <v>21.64914471679364</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3946464061737061</v>
+        <v>0.2667243480682373</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4937452897972159</v>
+        <v>0.4608159962394317</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24.19344263074817</v>
+        <v>21.73253877105342</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3850748538970947</v>
+        <v>0.2708170413970947</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4912445444652068</v>
+        <v>0.4618519810280663</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23.76250027508626</v>
+        <v>21.73253877105342</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3654515743255615</v>
+        <v>0.2708170413970947</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4861352637389654</v>
+        <v>0.4618519810280663</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.72638144240475</v>
+        <v>17.70668270032632</v>
       </c>
       <c r="D6" t="n">
-        <v>1.885254144668579</v>
+        <v>1.74076247215271</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4981060031339273</v>
+        <v>0.4646118365285654</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19.91808912497552</v>
+        <v>17.70668270032632</v>
       </c>
       <c r="D7" t="n">
-        <v>1.848340749740601</v>
+        <v>1.74076247215271</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4893870586531898</v>
+        <v>0.4646118365285654</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19.91808912497552</v>
+        <v>17.50432866830874</v>
       </c>
       <c r="D8" t="n">
-        <v>1.848340749740601</v>
+        <v>1.729891538619995</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4893870586531898</v>
+        <v>0.4621649296437191</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19.34316538700041</v>
+        <v>16.18707368870125</v>
       </c>
       <c r="D9" t="n">
-        <v>1.821823358535767</v>
+        <v>1.651485681533813</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4831896565971898</v>
+        <v>0.4448555814162515</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19.29487089258454</v>
+        <v>20.4378593530834</v>
       </c>
       <c r="D10" t="n">
-        <v>0.422039270401001</v>
+        <v>0.5184710025787354</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4148370111403122</v>
+        <v>0.4387629079547988</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22.5950090937642</v>
+        <v>21.72972093930105</v>
       </c>
       <c r="D11" t="n">
-        <v>0.649402379989624</v>
+        <v>0.6011979579925537</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4726226916347984</v>
+        <v>0.4599909147934512</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24.36869610646901</v>
+        <v>22.052590715623</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7390553951263428</v>
+        <v>0.619647741317749</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4965698439099493</v>
+        <v>0.4648040768576874</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24.32609549250818</v>
+        <v>22.052590715623</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7369925975799561</v>
+        <v>0.619647741317749</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4960126990541005</v>
+        <v>0.4648040768576874</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25.03048000129247</v>
+        <v>22.52849792020219</v>
       </c>
       <c r="D14" t="n">
-        <v>1.958592176437378</v>
+        <v>1.844750642776489</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5163043680816526</v>
+        <v>0.4870551405236328</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23.86306340546137</v>
+        <v>21.10583395935542</v>
       </c>
       <c r="D15" t="n">
-        <v>1.905642747879028</v>
+        <v>1.77772068977356</v>
       </c>
       <c r="E15" t="n">
-        <v>0.502598014553144</v>
+        <v>0.4702437097221303</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.65204771995229</v>
+        <v>21.18926238959175</v>
       </c>
       <c r="D16" t="n">
-        <v>1.896071195602417</v>
+        <v>1.781813383102417</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5001387963170801</v>
+        <v>0.471260627415917</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23.22087590073025</v>
+        <v>21.18926238959175</v>
       </c>
       <c r="D17" t="n">
-        <v>1.876447916030884</v>
+        <v>1.781813383102417</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4951154052805309</v>
+        <v>0.471260627415917</v>
       </c>
     </row>
   </sheetData>
